--- a/qa.xlsx
+++ b/qa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\11-wineservice(chatgpt)\project\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77071893-F599-4EA9-B528-CA6665BEF9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C8931-CD09-47DF-953F-228AE0ECB0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Prompt</t>
   </si>
@@ -36,7 +36,10 @@
     <t>Show me the cheapest white wine.</t>
   </si>
   <si>
-    <t>De Bortoli Sacred Hill Semillon Chardonnay 2019 has rating of 86. De Bortoli Sacred Hill Semillon Chardonnay 2019 is dry and semi-bold. De Bortoli Sacred Hill Semillon Chardonnay 2019 shows white color. De Bortoli Sacred Hill Semillon Chardonnay 2019 costs $9. Flavour description and tasting note of De Bortoli Sacred Hill Semillon Chardonnay 2019 is as follows: Appearance is Pale straw. Aromas of lemon, and stone-fruit with a touch of oak. A soft, balanced wine of crisp upfront citrus flavours and a creamy oak finish. Seared scallops on a bed of celeriac puree and smoked speck batons..</t>
+    <t>Show me the cheapest wine.</t>
+  </si>
+  <si>
+    <t>The cheapest white wine is De Bortoli Sacred Hill Semillon Chardonnay 2019. De Bortoli Sacred Hill Semillon Chardonnay 2019 has rating of 86. De Bortoli Sacred Hill Semillon Chardonnay 2019 is dry and semi-bold. De Bortoli Sacred Hill Semillon Chardonnay 2019 is kind of Full-bodied white. Food Pair of De Bortoli Sacred Hill Semillon Chardonnay 2019 is : Pork, roast chicken. White fish or oily fish such as salmon or ocean trout. Rich dishes with cream or cheese based sauces. Risotto. BBQ grilled lobster or pasta with tomato based sauce.. High level categorisation of De Bortoli Sacred Hill Semillon Chardonnay 2019 is ProductBestRatedWhite Blend,ProductBestValueWhite Blend,Our Picks,White,Best Value. De Bortoli Sacred Hill Semillon Chardonnay 2019 is White Blend. De Bortoli Sacred Hill Semillon Chardonnay 2019 comes from Riverina in NSW.  People can drink De Bortoli Sacred Hill Semillon Chardonnay 2019 on the occasion of "Warm up during a cold winter evening". De Bortoli Sacred Hill Semillon Chardonnay 2019 is listed as Best Value. Chardonnay wine can be used instead of De Bortoli Sacred Hill Semillon Chardonnay 2019. De Bortoli Sacred Hill Semillon Chardonnay 2019 is scored as good based on its price. De Bortoli Sacred Hill Semillon Chardonnay 2019 shows white color. De Bortoli Sacred Hill Semillon Chardonnay 2019 costs $9. De Bortoli Sacred Hill Semillon Chardonnay 2019 is currently on sale. It can be described as De Bortoli Sacred Hill Semillon Chardonnay 2019 is as follows: Appearance is Pale straw. Aromas of lemon, and stone-fruit with a touch of oak. A soft, balanced wine of crisp upfront citrus flavours and a creamy oak finish. Seared scallops on a bed of celeriac puree and smoked speck batons.. This is production link of De Bortoli Sacred Hill Semillon Chardonnay 2019 - &lt;a href="https://vinloco-test.myshopify.com/collections/all-wine/products/an-de-bortoli-sacred-hill-semillon-chardonnay-2019"&gt;https://vinloco-test.myshopify.com/collections/all-wine/products/an-de-bortoli-sacred-hill-semillon-chardonnay-2019&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +382,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
